--- a/Team_1_Work_Progress.xlsx
+++ b/Team_1_Work_Progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Days</t>
   </si>
@@ -69,13 +69,50 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>Login for website and sign up.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Login completed, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sign up pending</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Customer page designing.</t>
+  </si>
+  <si>
+    <t>Admin page designing.</t>
+  </si>
+  <si>
+    <t>Merchant page designing(add,remove,update pages,etc)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +135,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -435,6 +479,49 @@
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -444,77 +531,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -800,212 +844,216 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E6" sqref="E6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
     <col min="13" max="13" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="3"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="7"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="26"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="7"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="25"/>
+      <c r="E4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="7"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="26"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="27"/>
+      <c r="E5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14" t="s">
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="15"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="28"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="22"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="24"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="24"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="28"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="7"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K12" s="8"/>
+      <c r="K12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="A6:B9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E5:H5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:H1"/>
@@ -1022,7 +1070,19 @@
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="A6:B9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="I9:M9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
